--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4024.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4024.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.77412538190817</v>
+        <v>4.77294921875</v>
       </c>
       <c r="B1">
-        <v>2.494581694629569</v>
+        <v>6.162662982940674</v>
       </c>
       <c r="C1">
-        <v>2.779426204893702</v>
+        <v>8.474946975708008</v>
       </c>
       <c r="D1">
-        <v>3.249987061757526</v>
+        <v>7.040911674499512</v>
       </c>
       <c r="E1">
-        <v>2.301568342576426</v>
+        <v>2.537656784057617</v>
       </c>
     </row>
   </sheetData>
